--- a/template.xlsx
+++ b/template.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>序号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>审核日期</t>
   </si>
@@ -81,7 +78,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -104,13 +101,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -118,6 +202,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1200,16 +1311,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66667" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.67188" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.67188" style="1" customWidth="1"/>
-    <col min="7" max="10" width="8.67188" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.67188" style="1" customWidth="1"/>
+    <col min="1" max="4" width="8.67188" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.67188" style="1" customWidth="1"/>
+    <col min="6" max="9" width="8.67188" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.67188" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -1240,9 +1351,105 @@
       <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>审核日期</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>功能模块</t>
+  </si>
+  <si>
+    <t>模块代号</t>
   </si>
   <si>
     <t>问题分类</t>
@@ -78,7 +81,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,100 +104,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,33 +118,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1311,16 +1200,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66667" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="8.67188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.67188" style="1" customWidth="1"/>
-    <col min="6" max="9" width="8.67188" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.67188" style="1" customWidth="1"/>
+    <col min="1" max="5" width="8.67188" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.67188" style="1" customWidth="1"/>
+    <col min="7" max="10" width="8.67188" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.67188" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -1351,105 +1240,9 @@
       <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
